--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-9194-NullOpenClassAndAutoCastReturnType.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-9194-NullOpenClassAndAutoCastReturnType.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpikus\.openl-webstudio\user-workspace\DEFAULT\EPBDS-9194\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86629054-E1F8-4BF3-A8E0-FFAFD06E104C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070196DF-7749-4FD9-8FF5-ECA0E69C6362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="855" windowWidth="23430" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Steps</t>
   </si>
@@ -39,9 +39,6 @@
     <t>result</t>
   </si>
   <si>
-    <t>=flatten(null)</t>
-  </si>
-  <si>
     <t>result1</t>
   </si>
   <si>
@@ -54,20 +51,44 @@
     <t>_res_.$result</t>
   </si>
   <si>
-    <t>=flatten($Step1)</t>
-  </si>
-  <si>
     <t>Test MySpr</t>
+  </si>
+  <si>
+    <t>=flatten(null).length</t>
+  </si>
+  <si>
+    <t>=flatten($Step1).length</t>
+  </si>
+  <si>
+    <t>result2</t>
+  </si>
+  <si>
+    <t>Step2</t>
+  </si>
+  <si>
+    <t>= (String[]) null</t>
+  </si>
+  <si>
+    <t>_res_.$result2</t>
+  </si>
+  <si>
+    <t>= flatten($Step2).length</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -462,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D11:M22"/>
+  <dimension ref="D11:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,69 +506,101 @@
     </row>
     <row r="13" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="M17" s="1"/>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
         <v>9</v>
       </c>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
         <v>7</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>8</v>
       </c>
-      <c r="F21" t="s">
-        <v>9</v>
+      <c r="G21" t="s">
+        <v>15</v>
       </c>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D22">
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="M22" s="1"/>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
